--- a/fifty_one/updated_filtered_data_with_lengths.xlsx
+++ b/fifty_one/updated_filtered_data_with_lengths.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S193"/>
+  <dimension ref="A1:T193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,11 @@
           <t>Global_Uncertainty</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>RealLength(cm)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -598,6 +603,7 @@
       <c r="S2" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -667,6 +673,7 @@
       <c r="S3" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -736,6 +743,7 @@
       <c r="S4" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -805,6 +813,7 @@
       <c r="S5" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -874,6 +883,7 @@
       <c r="S6" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -943,6 +953,7 @@
       <c r="S7" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1012,6 +1023,7 @@
       <c r="S8" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1081,6 +1093,7 @@
       <c r="S9" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1150,6 +1163,7 @@
       <c r="S10" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1219,6 +1233,7 @@
       <c r="S11" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1288,6 +1303,7 @@
       <c r="S12" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1357,6 +1373,7 @@
       <c r="S13" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1426,6 +1443,7 @@
       <c r="S14" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1495,6 +1513,7 @@
       <c r="S15" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1564,6 +1583,7 @@
       <c r="S16" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1633,6 +1653,7 @@
       <c r="S17" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1702,6 +1723,7 @@
       <c r="S18" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1771,6 +1793,7 @@
       <c r="S19" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1840,6 +1863,7 @@
       <c r="S20" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1909,6 +1933,7 @@
       <c r="S21" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1978,6 +2003,7 @@
       <c r="S22" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2047,6 +2073,7 @@
       <c r="S23" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2116,6 +2143,7 @@
       <c r="S24" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2185,6 +2213,7 @@
       <c r="S25" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2254,6 +2283,7 @@
       <c r="S26" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2323,6 +2353,7 @@
       <c r="S27" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2392,6 +2423,7 @@
       <c r="S28" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2461,6 +2493,7 @@
       <c r="S29" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2530,6 +2563,7 @@
       <c r="S30" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2599,6 +2633,7 @@
       <c r="S31" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2668,6 +2703,7 @@
       <c r="S32" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2737,6 +2773,7 @@
       <c r="S33" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2806,6 +2843,7 @@
       <c r="S34" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2875,6 +2913,7 @@
       <c r="S35" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2944,6 +2983,7 @@
       <c r="S36" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3013,6 +3053,7 @@
       <c r="S37" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3082,6 +3123,7 @@
       <c r="S38" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3151,6 +3193,7 @@
       <c r="S39" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3220,6 +3263,7 @@
       <c r="S40" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3289,6 +3333,7 @@
       <c r="S41" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3358,6 +3403,7 @@
       <c r="S42" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3427,6 +3473,7 @@
       <c r="S43" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3496,6 +3543,7 @@
       <c r="S44" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3565,6 +3613,7 @@
       <c r="S45" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3634,6 +3683,7 @@
       <c r="S46" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3703,6 +3753,7 @@
       <c r="S47" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3772,6 +3823,7 @@
       <c r="S48" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3841,6 +3893,7 @@
       <c r="S49" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3910,6 +3963,7 @@
       <c r="S50" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3979,6 +4033,7 @@
       <c r="S51" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4048,6 +4103,7 @@
       <c r="S52" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4117,6 +4173,7 @@
       <c r="S53" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4186,6 +4243,7 @@
       <c r="S54" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4255,6 +4313,7 @@
       <c r="S55" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4324,6 +4383,7 @@
       <c r="S56" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4393,6 +4453,7 @@
       <c r="S57" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4462,6 +4523,7 @@
       <c r="S58" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4531,6 +4593,7 @@
       <c r="S59" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4600,6 +4663,7 @@
       <c r="S60" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4669,6 +4733,7 @@
       <c r="S61" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4738,6 +4803,7 @@
       <c r="S62" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4807,6 +4873,7 @@
       <c r="S63" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4876,6 +4943,7 @@
       <c r="S64" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4945,6 +5013,7 @@
       <c r="S65" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5014,6 +5083,7 @@
       <c r="S66" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5083,6 +5153,7 @@
       <c r="S67" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5152,6 +5223,7 @@
       <c r="S68" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5221,6 +5293,7 @@
       <c r="S69" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -5290,6 +5363,7 @@
       <c r="S70" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -5359,6 +5433,7 @@
       <c r="S71" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -5428,6 +5503,7 @@
       <c r="S72" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5497,6 +5573,7 @@
       <c r="S73" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5566,6 +5643,7 @@
       <c r="S74" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -5635,6 +5713,7 @@
       <c r="S75" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -5704,6 +5783,7 @@
       <c r="S76" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5773,6 +5853,7 @@
       <c r="S77" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5842,6 +5923,7 @@
       <c r="S78" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5911,6 +5993,7 @@
       <c r="S79" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5980,6 +6063,7 @@
       <c r="S80" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -6049,6 +6133,7 @@
       <c r="S81" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -6118,6 +6203,7 @@
       <c r="S82" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -6187,6 +6273,7 @@
       <c r="S83" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -6256,6 +6343,7 @@
       <c r="S84" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -6325,6 +6413,7 @@
       <c r="S85" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -6394,6 +6483,7 @@
       <c r="S86" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -6463,6 +6553,7 @@
       <c r="S87" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -6532,6 +6623,7 @@
       <c r="S88" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -6601,6 +6693,7 @@
       <c r="S89" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -6670,6 +6763,7 @@
       <c r="S90" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -6739,6 +6833,7 @@
       <c r="S91" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -6808,6 +6903,7 @@
       <c r="S92" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -6877,6 +6973,7 @@
       <c r="S93" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -6946,6 +7043,7 @@
       <c r="S94" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -7015,6 +7113,7 @@
       <c r="S95" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -7084,6 +7183,7 @@
       <c r="S96" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -7153,6 +7253,7 @@
       <c r="S97" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -7222,6 +7323,7 @@
       <c r="S98" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -7291,6 +7393,7 @@
       <c r="S99" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -7360,6 +7463,7 @@
       <c r="S100" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -7429,6 +7533,7 @@
       <c r="S101" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -7498,6 +7603,7 @@
       <c r="S102" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -7567,6 +7673,7 @@
       <c r="S103" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -7636,6 +7743,7 @@
       <c r="S104" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -7705,6 +7813,7 @@
       <c r="S105" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -7774,6 +7883,7 @@
       <c r="S106" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -7843,6 +7953,7 @@
       <c r="S107" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -7912,6 +8023,7 @@
       <c r="S108" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -7981,6 +8093,7 @@
       <c r="S109" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -8050,6 +8163,7 @@
       <c r="S110" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -8119,6 +8233,7 @@
       <c r="S111" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -8188,6 +8303,7 @@
       <c r="S112" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -8257,6 +8373,7 @@
       <c r="S113" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -8326,6 +8443,7 @@
       <c r="S114" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -8395,6 +8513,7 @@
       <c r="S115" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -8464,6 +8583,7 @@
       <c r="S116" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -8533,6 +8653,7 @@
       <c r="S117" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -8602,6 +8723,7 @@
       <c r="S118" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -8671,6 +8793,7 @@
       <c r="S119" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -8740,6 +8863,7 @@
       <c r="S120" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -8809,6 +8933,7 @@
       <c r="S121" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -8878,6 +9003,7 @@
       <c r="S122" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -8947,6 +9073,7 @@
       <c r="S123" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -9016,6 +9143,7 @@
       <c r="S124" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -9085,6 +9213,7 @@
       <c r="S125" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -9154,6 +9283,7 @@
       <c r="S126" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -9223,6 +9353,7 @@
       <c r="S127" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -9292,6 +9423,7 @@
       <c r="S128" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -9361,6 +9493,7 @@
       <c r="S129" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -9430,6 +9563,7 @@
       <c r="S130" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -9499,6 +9633,7 @@
       <c r="S131" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -9568,6 +9703,7 @@
       <c r="S132" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -9637,6 +9773,7 @@
       <c r="S133" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -9706,6 +9843,7 @@
       <c r="S134" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -9775,6 +9913,7 @@
       <c r="S135" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -9844,6 +9983,7 @@
       <c r="S136" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -9913,6 +10053,7 @@
       <c r="S137" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -9982,6 +10123,9 @@
       <c r="S138" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T138" t="n">
+        <v>0.007870897574133683</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -10051,6 +10195,9 @@
       <c r="S139" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T139" t="n">
+        <v>0.007870897574133683</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -10120,6 +10267,9 @@
       <c r="S140" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T140" t="n">
+        <v>0.008343312089821968</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -10189,6 +10339,9 @@
       <c r="S141" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T141" t="n">
+        <v>0.004983462722297296</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -10258,6 +10411,9 @@
       <c r="S142" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T142" t="n">
+        <v>0.003835960699594923</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -10327,6 +10483,9 @@
       <c r="S143" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T143" t="n">
+        <v>0.06550310741043701</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -10396,6 +10555,9 @@
       <c r="S144" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T144" t="n">
+        <v>0.006728582884419335</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -10465,6 +10627,9 @@
       <c r="S145" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T145" t="n">
+        <v>0.004860125626800435</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -10534,6 +10699,9 @@
       <c r="S146" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T146" t="n">
+        <v>0.004860125626800435</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -10603,6 +10771,9 @@
       <c r="S147" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T147" t="n">
+        <v>0.00395256683212445</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -10672,6 +10843,9 @@
       <c r="S148" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T148" t="n">
+        <v>0.00395256683212445</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -10741,6 +10915,9 @@
       <c r="S149" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T149" t="n">
+        <v>0.009084912322811698</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -10810,6 +10987,9 @@
       <c r="S150" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T150" t="n">
+        <v>0.004574133299071824</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -10879,6 +11059,9 @@
       <c r="S151" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T151" t="n">
+        <v>0.009041557857603801</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -10948,6 +11131,9 @@
       <c r="S152" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T152" t="n">
+        <v>0.07813754509862221</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -11017,6 +11203,9 @@
       <c r="S153" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T153" t="n">
+        <v>0.07813754509862221</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -11086,6 +11275,9 @@
       <c r="S154" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T154" t="n">
+        <v>0.002588820557018617</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -11155,6 +11347,9 @@
       <c r="S155" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T155" t="n">
+        <v>0.002588820557018617</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -11224,6 +11419,9 @@
       <c r="S156" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T156" t="n">
+        <v>0.006979058697828309</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -11293,6 +11491,9 @@
       <c r="S157" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T157" t="n">
+        <v>0.004520305735452402</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -11362,6 +11563,9 @@
       <c r="S158" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T158" t="n">
+        <v>0.005710849401234981</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -11431,6 +11635,9 @@
       <c r="S159" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T159" t="n">
+        <v>0.006607143281031951</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -11500,6 +11707,9 @@
       <c r="S160" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T160" t="n">
+        <v>0.006607143281031951</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -11569,6 +11779,9 @@
       <c r="S161" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T161" t="n">
+        <v>0.007586164367923267</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -11638,6 +11851,9 @@
       <c r="S162" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T162" t="n">
+        <v>0.009955943167229715</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -11707,6 +11923,9 @@
       <c r="S163" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T163" t="n">
+        <v>0.009955943167229715</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -11776,6 +11995,9 @@
       <c r="S164" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T164" t="n">
+        <v>0.005158014830297068</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -11845,6 +12067,9 @@
       <c r="S165" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T165" t="n">
+        <v>0.005230822294912789</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -11914,6 +12139,9 @@
       <c r="S166" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T166" t="n">
+        <v>0.01003736174663327</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -11983,6 +12211,9 @@
       <c r="S167" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T167" t="n">
+        <v>0.005813115204096359</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -12052,6 +12283,9 @@
       <c r="S168" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T168" t="n">
+        <v>0.009680855994443965</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -12121,6 +12355,9 @@
       <c r="S169" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T169" t="n">
+        <v>0.005098610983387261</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -12190,6 +12427,9 @@
       <c r="S170" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T170" t="n">
+        <v>0.005031044514443349</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -12259,6 +12499,9 @@
       <c r="S171" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T171" t="n">
+        <v>0.005031044514443349</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -12328,6 +12571,9 @@
       <c r="S172" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T172" t="n">
+        <v>0.009149067792013632</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -12397,6 +12643,9 @@
       <c r="S173" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T173" t="n">
+        <v>0.006094151138782733</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -12466,6 +12715,9 @@
       <c r="S174" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T174" t="n">
+        <v>0.005466392617896241</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -12535,6 +12787,9 @@
       <c r="S175" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T175" t="n">
+        <v>0.006820888397383281</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -12604,6 +12859,9 @@
       <c r="S176" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T176" t="n">
+        <v>0.01167194899567506</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -12673,6 +12931,9 @@
       <c r="S177" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T177" t="n">
+        <v>0.01167194899567506</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -12742,6 +13003,9 @@
       <c r="S178" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T178" t="n">
+        <v>0.1236176601392398</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -12811,6 +13075,9 @@
       <c r="S179" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T179" t="n">
+        <v>0.006378104756638819</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -12880,6 +13147,9 @@
       <c r="S180" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T180" t="n">
+        <v>0.01029404645893876</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -12949,6 +13219,9 @@
       <c r="S181" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T181" t="n">
+        <v>0.01029404645893876</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -13018,6 +13291,9 @@
       <c r="S182" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -13087,6 +13363,9 @@
       <c r="S183" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T183" t="n">
+        <v>0.00964130032979468</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -13156,6 +13435,9 @@
       <c r="S184" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -13225,6 +13507,9 @@
       <c r="S185" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T185" t="n">
+        <v>0.007817472147848472</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -13294,6 +13579,9 @@
       <c r="S186" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T186" t="n">
+        <v>0.006858817668797836</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -13363,6 +13651,9 @@
       <c r="S187" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T187" t="n">
+        <v>0.009128433694236465</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -13432,6 +13723,9 @@
       <c r="S188" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T188" t="n">
+        <v>0.009128433694236465</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -13501,6 +13795,9 @@
       <c r="S189" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T189" t="n">
+        <v>0.009128433694236465</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -13570,6 +13867,9 @@
       <c r="S190" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T190" t="n">
+        <v>0.008352169461518346</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -13639,6 +13939,9 @@
       <c r="S191" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T191" t="n">
+        <v>0.008352169461518346</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -13708,6 +14011,9 @@
       <c r="S192" t="n">
         <v>0.2942581907953586</v>
       </c>
+      <c r="T192" t="n">
+        <v>0.003566640166672657</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -13776,6 +14082,9 @@
       </c>
       <c r="S193" t="n">
         <v>0.2942581907953586</v>
+      </c>
+      <c r="T193" t="n">
+        <v>0.003566640166672657</v>
       </c>
     </row>
   </sheetData>

--- a/fifty_one/updated_filtered_data_with_lengths.xlsx
+++ b/fifty_one/updated_filtered_data_with_lengths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbo10\Videos\research\counting_research_algorithms\fifty_one\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A2EB94-ABED-4B0E-9112-BD007CEDC1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2B3035-2709-429B-95E5-E399A9C414BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="691">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -2105,7 +2105,10 @@
     <t>(435.99985, 2204.01515, 232.999025, 21.003075)</t>
   </si>
   <si>
-    <t>difference</t>
+    <t>Absolute error</t>
+  </si>
+  <si>
+    <t>percentage error</t>
   </si>
 </sst>
 </file>
@@ -2172,9 +2175,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2483,18 +2489,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:U193"/>
+  <dimension ref="A1:V193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="57.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2558,8 +2565,11 @@
       <c r="U1" s="2" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V1" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>992</v>
       </c>
@@ -2624,8 +2634,12 @@
         <f>ABS(D2-T2)</f>
         <v>319.95119748938976</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V2">
+        <f>ABS(D2-T2)/D2</f>
+        <v>6.3414855376759487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>789</v>
       </c>
@@ -2690,8 +2704,12 @@
         <f>ABS(D3-T3)</f>
         <v>207.58683832863417</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V3">
+        <f t="shared" ref="V3:V5" si="0">ABS(D3-T3)/D3</f>
+        <v>7.7624803991910776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>788</v>
       </c>
@@ -2756,8 +2774,12 @@
         <f>ABS(D4-T4)</f>
         <v>192.82750499530084</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>4.6462593067419178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>719</v>
       </c>
@@ -2822,8 +2844,12 @@
         <f>ABS(D5-T5)</f>
         <v>159.6183419985758</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>4.4073984426379447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1020</v>
       </c>
@@ -2889,7 +2915,7 @@
         <v>34.012</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1038</v>
       </c>
@@ -2955,7 +2981,7 @@
         <v>33.506999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>803</v>
       </c>
@@ -3020,8 +3046,12 @@
         <f>ABS(D8-T8)</f>
         <v>31.601749327237087</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V8">
+        <f t="shared" ref="V8:V57" si="1">ABS(D8-T8)/D8</f>
+        <v>0.76412093060998354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>955</v>
       </c>
@@ -3086,8 +3116,12 @@
         <f>ABS(D9-T9)</f>
         <v>25.279862601709596</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>0.57740310177035303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>821</v>
       </c>
@@ -3152,8 +3186,12 @@
         <f>ABS(D10-T10)</f>
         <v>24.86826214608335</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>0.52478711918972754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>748</v>
       </c>
@@ -3218,8 +3256,12 @@
         <f>ABS(D11-T11)</f>
         <v>22.501173419856265</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>0.59694838442858467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>844</v>
       </c>
@@ -3284,8 +3326,12 @@
         <f>ABS(D12-T12)</f>
         <v>20.272725767348817</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>0.50370774883466629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>802</v>
       </c>
@@ -3350,8 +3396,12 @@
         <f>ABS(D13-T13)</f>
         <v>19.328082660570416</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>0.66457590809984246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>843</v>
       </c>
@@ -3416,8 +3466,12 @@
         <f>ABS(D14-T14)</f>
         <v>19.286059100682152</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>0.49123523575149169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>621</v>
       </c>
@@ -3482,8 +3536,12 @@
         <f>ABS(D15-T15)</f>
         <v>18.971031902860492</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>0.44402649275273237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>937</v>
       </c>
@@ -3548,8 +3606,12 @@
         <f>ABS(D16-T16)</f>
         <v>17.641516962183484</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>0.43795399798543955</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>738</v>
       </c>
@@ -3614,8 +3676,12 @@
         <f>ABS(D17-T17)</f>
         <v>17.61192894093875</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>0.52231468729614605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>620</v>
       </c>
@@ -3680,8 +3746,12 @@
         <f>ABS(D18-T18)</f>
         <v>17.325698569527159</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>0.42175849940831617</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>640</v>
       </c>
@@ -3746,8 +3816,12 @@
         <f>ABS(D19-T19)</f>
         <v>16.882330429987366</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>0.39458218774316828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>909</v>
       </c>
@@ -3812,8 +3886,12 @@
         <f>ABS(D20-T20)</f>
         <v>16.680226826493811</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>0.47488190253363166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>700</v>
       </c>
@@ -3878,8 +3956,12 @@
         <f>ABS(D21-T21)</f>
         <v>16.677394064279135</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>0.46139400935877428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>747</v>
       </c>
@@ -3944,8 +4026,12 @@
         <f>ABS(D22-T22)</f>
         <v>16.092840086522919</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>0.51438927995619632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1086</v>
       </c>
@@ -4010,8 +4096,12 @@
         <f>ABS(D23-T23)</f>
         <v>14.565326874772701</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>0.36813355651680002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>737</v>
       </c>
@@ -4076,8 +4166,12 @@
         <f>ABS(D24-T24)</f>
         <v>14.353595607605417</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>0.47121738222862541</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>770</v>
       </c>
@@ -4142,8 +4236,12 @@
         <f>ABS(D25-T25)</f>
         <v>14.14698253491013</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>0.37118522642956814</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1096</v>
       </c>
@@ -4208,8 +4306,12 @@
         <f>ABS(D26-T26)</f>
         <v>13.821534691078522</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>0.42207884926796452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>936</v>
       </c>
@@ -4274,8 +4376,12 @@
         <f>ABS(D27-T27)</f>
         <v>13.359516962183481</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>0.37110112951555513</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1066</v>
       </c>
@@ -4340,8 +4446,12 @@
         <f>ABS(D28-T28)</f>
         <v>13.096481118192521</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>0.36225825308258175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>891</v>
       </c>
@@ -4406,8 +4516,12 @@
         <f>ABS(D29-T29)</f>
         <v>12.85579570050751</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>0.36132761623341764</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1001</v>
       </c>
@@ -4472,8 +4586,12 @@
         <f>ABS(D30-T30)</f>
         <v>12.770953440167531</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>0.27382367043913286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>691</v>
       </c>
@@ -4538,8 +4656,12 @@
         <f>ABS(D31-T31)</f>
         <v>12.441110358817838</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>0.33128001026462323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1057</v>
       </c>
@@ -4604,8 +4726,12 @@
         <f>ABS(D32-T32)</f>
         <v>11.973816071737907</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>0.33809376467301405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1011</v>
       </c>
@@ -4670,8 +4796,12 @@
         <f>ABS(D33-T33)</f>
         <v>11.240453065914398</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>0.26304327868626559</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>728</v>
       </c>
@@ -4736,8 +4866,12 @@
         <f>ABS(D34-T34)</f>
         <v>10.960926011272157</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>0.33226674110863907</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>853</v>
       </c>
@@ -4802,8 +4936,12 @@
         <f>ABS(D35-T35)</f>
         <v>10.864814147973764</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>0.30017997701225141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1087</v>
       </c>
@@ -4868,8 +5006,12 @@
         <f>ABS(D36-T36)</f>
         <v>10.726660208106026</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V36">
+        <f t="shared" si="1"/>
+        <v>0.30024240179434669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1077</v>
       </c>
@@ -4934,8 +5076,12 @@
         <f>ABS(D37-T37)</f>
         <v>10.383516701690201</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V37">
+        <f t="shared" si="1"/>
+        <v>0.26487887303105023</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>779</v>
       </c>
@@ -5000,8 +5146,12 @@
         <f>ABS(D38-T38)</f>
         <v>9.7786149177328525</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>0.26213080476082812</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1097</v>
       </c>
@@ -5066,8 +5216,12 @@
         <f>ABS(D39-T39)</f>
         <v>9.649534691078518</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V39">
+        <f t="shared" si="1"/>
+        <v>0.3376993814173041</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>882</v>
       </c>
@@ -5132,8 +5286,12 @@
         <f>ABS(D40-T40)</f>
         <v>9.4591213972235089</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V40">
+        <f t="shared" si="1"/>
+        <v>0.33125972324368791</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>812</v>
       </c>
@@ -5198,8 +5356,12 @@
         <f>ABS(D41-T41)</f>
         <v>9.299078966666567</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V41">
+        <f t="shared" si="1"/>
+        <v>0.27937466852266973</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>918</v>
       </c>
@@ -5264,8 +5426,12 @@
         <f>ABS(D42-T42)</f>
         <v>8.6100876455200499</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V42">
+        <f t="shared" si="1"/>
+        <v>0.22832574261736732</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>946</v>
       </c>
@@ -5330,8 +5496,12 @@
         <f>ABS(D43-T43)</f>
         <v>7.0291841775428701</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V43">
+        <f t="shared" si="1"/>
+        <v>0.20293664382004592</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>927</v>
       </c>
@@ -5396,8 +5566,12 @@
         <f>ABS(D44-T44)</f>
         <v>6.351603503790173</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V44">
+        <f t="shared" si="1"/>
+        <v>0.19637453764565169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1010</v>
       </c>
@@ -5462,8 +5636,12 @@
         <f>ABS(D45-T45)</f>
         <v>5.7671197325810546</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V45">
+        <f t="shared" si="1"/>
+        <v>0.15478460862022747</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1075</v>
       </c>
@@ -5528,8 +5706,12 @@
         <f>ABS(D46-T46)</f>
         <v>5.354850035023528</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V46">
+        <f t="shared" si="1"/>
+        <v>0.15670132860960218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>964</v>
       </c>
@@ -5594,8 +5776,12 @@
         <f>ABS(D47-T47)</f>
         <v>5.2188288495001807</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V47">
+        <f t="shared" si="1"/>
+        <v>0.16175058938054571</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>862</v>
       </c>
@@ -5660,8 +5846,12 @@
         <f>ABS(D48-T48)</f>
         <v>4.7355606046551486</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V48">
+        <f t="shared" si="1"/>
+        <v>0.12370740253015432</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>761</v>
       </c>
@@ -5726,8 +5916,12 @@
         <f>ABS(D49-T49)</f>
         <v>2.9726094354648893</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V49">
+        <f t="shared" si="1"/>
+        <v>9.5163089780225044E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1076</v>
       </c>
@@ -5792,8 +5986,12 @@
         <f>ABS(D50-T50)</f>
         <v>2.2418166316431289</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V50">
+        <f t="shared" si="1"/>
+        <v>8.4355988497364587E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>973</v>
       </c>
@@ -5858,8 +6056,12 @@
         <f>ABS(D51-T51)</f>
         <v>1.9627773467005056</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V51">
+        <f t="shared" si="1"/>
+        <v>5.14669350590116E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>863</v>
       </c>
@@ -5924,8 +6126,12 @@
         <f>ABS(D52-T52)</f>
         <v>1.8674393953448387</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V52">
+        <f t="shared" si="1"/>
+        <v>5.8951912892862578E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>834</v>
       </c>
@@ -5990,8 +6196,12 @@
         <f>ABS(D53-T53)</f>
         <v>1.6806176505034003</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V53">
+        <f t="shared" si="1"/>
+        <v>6.2493529233622551E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>982</v>
       </c>
@@ -6056,8 +6266,12 @@
         <f>ABS(D54-T54)</f>
         <v>1.472313259089411</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V54">
+        <f t="shared" si="1"/>
+        <v>4.383450217605727E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>900</v>
       </c>
@@ -6122,8 +6336,12 @@
         <f>ABS(D55-T55)</f>
         <v>1.1722018335400399</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V55">
+        <f t="shared" si="1"/>
+        <v>3.6959321274436872E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1029</v>
       </c>
@@ -6188,8 +6406,12 @@
         <f>ABS(D56-T56)</f>
         <v>0.45895193962224567</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V56">
+        <f t="shared" si="1"/>
+        <v>1.1426473844715943E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>983</v>
       </c>
@@ -6254,8 +6476,12 @@
         <f>ABS(D57-T57)</f>
         <v>0.38668674091060495</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V57">
+        <f t="shared" si="1"/>
+        <v>1.0908870734070724E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>8</v>
       </c>
@@ -6314,11 +6540,11 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U58">
-        <f t="shared" ref="U3:U66" si="0">D58-T58</f>
+        <f t="shared" ref="U58:U66" si="2">D58-T58</f>
         <v>41.917999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>9</v>
       </c>
@@ -6377,11 +6603,11 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26.698</v>
       </c>
     </row>
-    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>10</v>
       </c>
@@ -6440,11 +6666,11 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>46.299666666666667</v>
       </c>
     </row>
-    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>11</v>
       </c>
@@ -6503,11 +6729,11 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24.27866666666667</v>
       </c>
     </row>
-    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>20</v>
       </c>
@@ -6566,11 +6792,11 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>33.843333333333327</v>
       </c>
     </row>
-    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>21</v>
       </c>
@@ -6629,11 +6855,11 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>34.543999999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>22</v>
       </c>
@@ -6692,7 +6918,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32.81366666666667</v>
       </c>
     </row>
@@ -6755,7 +6981,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36.979333333333329</v>
       </c>
     </row>
@@ -6818,7 +7044,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>33.477666666666657</v>
       </c>
     </row>
@@ -6881,7 +7107,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U67">
-        <f t="shared" ref="U67:U130" si="1">D67-T67</f>
+        <f t="shared" ref="U67:U130" si="3">D67-T67</f>
         <v>31.405999999999999</v>
       </c>
     </row>
@@ -6944,7 +7170,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32.741666666666667</v>
       </c>
     </row>
@@ -7007,7 +7233,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27.46533333333333</v>
       </c>
     </row>
@@ -7070,7 +7296,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31.256666666666661</v>
       </c>
     </row>
@@ -7133,7 +7359,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42.477333333333327</v>
       </c>
     </row>
@@ -7196,7 +7422,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36.943333333333342</v>
       </c>
     </row>
@@ -7259,7 +7485,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41.953333333333333</v>
       </c>
     </row>
@@ -7322,7 +7548,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39.764000000000003</v>
       </c>
     </row>
@@ -7385,7 +7611,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28.946666666666669</v>
       </c>
     </row>
@@ -7448,7 +7674,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46.233666666666657</v>
       </c>
     </row>
@@ -7511,7 +7737,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33.493666666666662</v>
       </c>
     </row>
@@ -7574,7 +7800,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37.038666666666657</v>
       </c>
     </row>
@@ -7637,7 +7863,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37.564999999999998</v>
       </c>
     </row>
@@ -7700,7 +7926,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28.70933333333333</v>
       </c>
     </row>
@@ -7763,7 +7989,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26.248666666666669</v>
       </c>
     </row>
@@ -7826,7 +8052,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35.994999999999997</v>
       </c>
     </row>
@@ -7889,7 +8115,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34.313000000000002</v>
       </c>
     </row>
@@ -7952,7 +8178,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39.731666666666662</v>
       </c>
     </row>
@@ -8015,7 +8241,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30.95066666666667</v>
       </c>
     </row>
@@ -8078,7 +8304,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45.370333333333328</v>
       </c>
     </row>
@@ -8141,7 +8367,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>38.99133333333333</v>
       </c>
     </row>
@@ -8204,7 +8430,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44.640666666666668</v>
       </c>
     </row>
@@ -8267,7 +8493,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31.742999999999999</v>
       </c>
     </row>
@@ -8330,7 +8556,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45.018000000000001</v>
       </c>
     </row>
@@ -8393,7 +8619,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26.501333333333331</v>
       </c>
     </row>
@@ -8456,7 +8682,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33.99</v>
       </c>
     </row>
@@ -8519,7 +8745,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43.625999999999998</v>
       </c>
     </row>
@@ -8582,7 +8808,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35.125</v>
       </c>
     </row>
@@ -8645,7 +8871,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34.033666666666669</v>
       </c>
     </row>
@@ -8708,7 +8934,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34.535333333333327</v>
       </c>
     </row>
@@ -8771,7 +8997,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41.434333333333328</v>
       </c>
     </row>
@@ -8834,7 +9060,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32.122</v>
       </c>
     </row>
@@ -8897,7 +9123,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35.702333333333343</v>
       </c>
     </row>
@@ -8960,7 +9186,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28.686</v>
       </c>
     </row>
@@ -9023,7 +9249,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31.811</v>
       </c>
     </row>
@@ -9086,7 +9312,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33.732666666666667</v>
       </c>
     </row>
@@ -9149,7 +9375,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36.140333333333331</v>
       </c>
     </row>
@@ -9212,7 +9438,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36.446666666666673</v>
       </c>
     </row>
@@ -9275,7 +9501,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31.065000000000001</v>
       </c>
     </row>
@@ -9338,7 +9564,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36.763333333333343</v>
       </c>
     </row>
@@ -9401,7 +9627,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36.775333333333343</v>
       </c>
     </row>
@@ -9464,7 +9690,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36.042333333333332</v>
       </c>
     </row>
@@ -9527,7 +9753,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37.667000000000002</v>
       </c>
     </row>
@@ -9590,7 +9816,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36.335999999999999</v>
       </c>
     </row>
@@ -9653,7 +9879,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33.140333333333331</v>
       </c>
     </row>
@@ -9716,7 +9942,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34.393666666666668</v>
       </c>
     </row>
@@ -9779,7 +10005,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34.423999999999999</v>
       </c>
     </row>
@@ -9842,7 +10068,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37.460333333333331</v>
       </c>
     </row>
@@ -9905,7 +10131,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36.905999999999999</v>
       </c>
     </row>
@@ -9968,7 +10194,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26.740333333333339</v>
       </c>
     </row>
@@ -10031,7 +10257,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25.016666666666669</v>
       </c>
     </row>
@@ -10094,7 +10320,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37.626666666666672</v>
       </c>
     </row>
@@ -10157,7 +10383,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21.106666666666669</v>
       </c>
     </row>
@@ -10220,7 +10446,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27.027999999999999</v>
       </c>
     </row>
@@ -10283,7 +10509,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44.075333333333333</v>
       </c>
     </row>
@@ -10346,7 +10572,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35.542000000000002</v>
       </c>
     </row>
@@ -10409,7 +10635,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.591333333333331</v>
       </c>
     </row>
@@ -10472,7 +10698,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32.412999999999997</v>
       </c>
     </row>
@@ -10535,7 +10761,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>38.315666666666672</v>
       </c>
     </row>
@@ -10598,7 +10824,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.542666666666669</v>
       </c>
     </row>
@@ -10661,7 +10887,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31.720666666666659</v>
       </c>
     </row>
@@ -10724,7 +10950,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32.664666666666669</v>
       </c>
     </row>
@@ -10787,7 +11013,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34.274000000000001</v>
       </c>
     </row>
@@ -10850,7 +11076,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36.252666666666663</v>
       </c>
     </row>
@@ -10913,7 +11139,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U131">
-        <f t="shared" ref="U131:U193" si="2">D131-T131</f>
+        <f t="shared" ref="U131:U193" si="4">D131-T131</f>
         <v>33.519666666666673</v>
       </c>
     </row>
@@ -10976,7 +11202,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>35.576666666666668</v>
       </c>
     </row>
@@ -11039,7 +11265,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41.317</v>
       </c>
     </row>
@@ -11102,7 +11328,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29.259</v>
       </c>
     </row>
@@ -11165,7 +11391,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>39.387</v>
       </c>
     </row>
@@ -11228,7 +11454,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>51.081000000000003</v>
       </c>
     </row>
@@ -11291,7 +11517,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45.993666666666662</v>
       </c>
     </row>
@@ -11354,7 +11580,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>31.913666666666661</v>
       </c>
     </row>
@@ -11417,7 +11643,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36.117999999999988</v>
       </c>
     </row>
@@ -11480,7 +11706,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30.013333333333328</v>
       </c>
     </row>
@@ -11543,7 +11769,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40.686999999999998</v>
       </c>
     </row>
@@ -11606,7 +11832,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40.706333333333333</v>
       </c>
     </row>
@@ -11669,7 +11895,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>37.845999999999997</v>
       </c>
     </row>
@@ -11732,7 +11958,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>37.234333333333332</v>
       </c>
     </row>
@@ -11795,7 +12021,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>37.793666666666667</v>
       </c>
     </row>
@@ -11858,7 +12084,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42.524999999999999</v>
       </c>
     </row>
@@ -11921,7 +12147,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33.435000000000002</v>
       </c>
     </row>
@@ -11984,7 +12210,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40.212666666666671</v>
       </c>
     </row>
@@ -12047,7 +12273,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42.803666666666658</v>
       </c>
     </row>
@@ -12110,7 +12336,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41.113</v>
       </c>
     </row>
@@ -12173,7 +12399,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>43.906333333333329</v>
       </c>
     </row>
@@ -12236,7 +12462,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>37.876666666666672</v>
       </c>
     </row>
@@ -12299,7 +12525,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>37.072666666666663</v>
       </c>
     </row>
@@ -12362,7 +12588,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>38.641333333333343</v>
       </c>
     </row>
@@ -12425,7 +12651,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42.787333333333329</v>
       </c>
     </row>
@@ -12488,7 +12714,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>27.96866666666666</v>
       </c>
     </row>
@@ -12551,7 +12777,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22.925000000000001</v>
       </c>
     </row>
@@ -12614,7 +12840,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>27.132000000000001</v>
       </c>
     </row>
@@ -12677,7 +12903,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.408000000000001</v>
       </c>
     </row>
@@ -12740,7 +12966,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>35.178333333333327</v>
       </c>
     </row>
@@ -12803,7 +13029,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>38.237000000000002</v>
       </c>
     </row>
@@ -12866,7 +13092,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.88966666666667</v>
       </c>
     </row>
@@ -12929,7 +13155,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>31.54933333333334</v>
       </c>
     </row>
@@ -12992,7 +13218,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28.173333333333328</v>
       </c>
     </row>
@@ -13055,7 +13281,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.41433333333333</v>
       </c>
     </row>
@@ -13118,7 +13344,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24.666</v>
       </c>
     </row>
@@ -13181,7 +13407,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33.875666666666667</v>
       </c>
     </row>
@@ -13244,7 +13470,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32.810666666666663</v>
       </c>
     </row>
@@ -13307,7 +13533,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34.479333333333336</v>
       </c>
     </row>
@@ -13370,7 +13596,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33.397333333333343</v>
       </c>
     </row>
@@ -13433,7 +13659,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28.93333333333333</v>
       </c>
     </row>
@@ -13496,7 +13722,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>35.580000000000013</v>
       </c>
     </row>
@@ -13559,7 +13785,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36.262999999999998</v>
       </c>
     </row>
@@ -13622,7 +13848,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>35.103000000000002</v>
       </c>
     </row>
@@ -13685,7 +13911,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>43.06933333333334</v>
       </c>
     </row>
@@ -13748,7 +13974,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30.80866666666666</v>
       </c>
     </row>
@@ -13811,7 +14037,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28.917999999999999</v>
       </c>
     </row>
@@ -13874,7 +14100,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>37.537999999999997</v>
       </c>
     </row>
@@ -13937,7 +14163,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>27.722999999999999</v>
       </c>
     </row>
@@ -14000,7 +14226,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36.993000000000002</v>
       </c>
     </row>
@@ -14063,7 +14289,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>43.295333333333332</v>
       </c>
     </row>
@@ -14126,7 +14352,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32.398666666666657</v>
       </c>
     </row>
@@ -14189,7 +14415,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30.09033333333333</v>
       </c>
     </row>
@@ -14252,7 +14478,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29.376000000000001</v>
       </c>
     </row>
@@ -14315,7 +14541,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>31.06633333333334</v>
       </c>
     </row>
@@ -14378,7 +14604,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42.122666666666667</v>
       </c>
     </row>
@@ -14441,7 +14667,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>27.876999999999999</v>
       </c>
     </row>
@@ -14504,7 +14730,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20.31433333333333</v>
       </c>
     </row>
@@ -14567,7 +14793,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.846666666666671</v>
       </c>
     </row>
@@ -14630,7 +14856,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21.88</v>
       </c>
     </row>
@@ -14693,7 +14919,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32.966000000000001</v>
       </c>
     </row>
@@ -14756,7 +14982,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.029</v>
       </c>
     </row>
@@ -14819,7 +15045,7 @@
         <v>0.29425819079535859</v>
       </c>
       <c r="U193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>26.559666666666669</v>
       </c>
     </row>
